--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,7 +605,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-primary-vaccine-status</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -1100,7 +1103,7 @@
     <t>The path by which the vaccine product is taken into the body.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-route</t>
+    <t>https://www.hl7.org/fhir/R4/valueset-immunization-route</t>
   </si>
   <si>
     <t>RXR-1</t>
@@ -1935,7 +1938,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -4006,7 +4009,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4039,13 +4042,13 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4056,10 +4059,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4085,10 +4088,10 @@
         <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4115,13 +4118,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4139,7 +4142,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -4154,27 +4157,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4197,13 +4200,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4254,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4275,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4286,10 +4289,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4315,10 +4318,10 @@
         <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>172</v>
@@ -4362,7 +4365,7 @@
         <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
@@ -4371,7 +4374,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4392,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4403,10 +4406,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4429,19 +4432,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4490,7 +4493,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4508,10 +4511,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4522,10 +4525,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4548,19 +4551,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4609,7 +4612,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4627,10 +4630,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4641,10 +4644,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4667,13 +4670,13 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4724,7 +4727,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
@@ -4739,16 +4742,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4782,13 +4785,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4839,7 +4842,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4854,16 +4857,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4897,16 +4900,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4956,7 +4959,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -4971,27 +4974,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5014,13 +5017,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5071,7 +5074,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5092,10 +5095,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5103,10 +5106,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5129,16 +5132,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5188,7 +5191,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5206,13 +5209,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5220,10 +5223,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5249,13 +5252,13 @@
         <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5281,13 +5284,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5305,7 +5308,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,13 +5326,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5337,10 +5340,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5363,13 +5366,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5420,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5435,16 +5438,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5452,10 +5455,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5478,13 +5481,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5535,7 +5538,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5553,24 +5556,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5593,13 +5596,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5650,7 +5653,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5671,7 +5674,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5711,10 +5714,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>172</v>
@@ -5758,7 +5761,7 @@
         <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5770,7 @@
         <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5788,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5825,16 +5828,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5884,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5893,7 +5896,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>102</v>
@@ -5916,10 +5919,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5945,13 +5948,13 @@
         <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5977,13 +5980,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6001,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6062,13 +6065,13 @@
         <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6118,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6139,7 +6142,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6176,16 +6179,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6235,7 +6238,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6270,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6293,13 +6296,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6350,7 +6353,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6368,24 +6371,24 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,13 +6411,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6465,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6483,10 +6486,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6497,10 +6500,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6526,10 +6529,10 @@
         <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6560,7 +6563,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6578,7 +6581,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6596,24 +6599,24 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6639,10 +6642,10 @@
         <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6673,7 +6676,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6691,7 +6694,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6709,24 +6712,24 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6749,13 +6752,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6806,7 +6809,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6824,10 +6827,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6838,10 +6841,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6864,13 +6867,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6921,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6936,13 +6939,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6953,10 +6956,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6979,13 +6982,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7036,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7057,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7068,10 +7071,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7097,10 +7100,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>172</v>
@@ -7153,7 +7156,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7177,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7185,14 +7188,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7214,10 +7217,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>172</v>
@@ -7272,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7304,10 +7307,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7333,10 +7336,10 @@
         <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7363,13 +7366,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7390,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7402,13 +7405,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7419,10 +7422,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7445,16 +7448,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7504,7 +7507,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7519,16 +7522,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7536,10 +7539,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7562,13 +7565,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7619,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7634,13 +7637,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7651,10 +7654,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7680,10 +7683,10 @@
         <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7710,13 +7713,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7734,7 +7737,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7749,13 +7752,13 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7766,10 +7769,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7792,13 +7795,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7849,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7864,7 +7867,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7881,10 +7884,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7907,23 +7910,23 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7986,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>133</v>
@@ -8000,10 +8003,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8029,10 +8032,10 @@
         <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8059,13 +8062,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8083,7 +8086,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8115,10 +8118,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8141,13 +8144,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8198,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8210,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8230,10 +8233,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8256,13 +8259,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8313,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8334,7 +8337,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8345,10 +8348,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8374,10 +8377,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>172</v>
@@ -8430,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8451,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8462,14 +8465,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8491,10 +8494,10 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>172</v>
@@ -8549,7 +8552,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8581,10 +8584,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8607,13 +8610,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8664,7 +8667,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8682,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>133</v>
@@ -8696,10 +8699,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8725,10 +8728,10 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8779,7 +8782,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8811,10 +8814,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8837,13 +8840,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8894,7 +8897,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8912,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>133</v>
@@ -8926,10 +8929,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8952,13 +8955,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9009,7 +9012,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9027,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>133</v>
@@ -9041,10 +9044,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9070,10 +9073,10 @@
         <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9100,13 +9103,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9127,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9142,7 +9145,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>133</v>
@@ -9156,10 +9159,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9185,10 +9188,10 @@
         <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9215,13 +9218,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9239,7 +9242,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9271,10 +9274,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9297,16 +9300,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9356,7 +9359,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9374,10 +9377,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9388,10 +9391,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9414,13 +9417,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9471,7 +9474,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9492,7 +9495,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9503,10 +9506,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9532,10 +9535,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>172</v>
@@ -9588,7 +9591,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9609,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9620,14 +9623,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9649,10 +9652,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>172</v>
@@ -9707,7 +9710,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9739,10 +9742,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9765,13 +9768,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9822,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9840,10 +9843,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9854,10 +9857,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9880,13 +9883,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9937,7 +9940,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9955,10 +9958,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9969,10 +9972,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9995,13 +9998,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10052,7 +10055,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10070,10 +10073,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10084,10 +10087,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10110,13 +10113,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10167,7 +10170,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10225,13 +10228,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10282,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10303,7 +10306,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10314,10 +10317,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10395,7 +10398,7 @@
         <v>139</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10427,13 +10430,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="C74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
@@ -10455,13 +10458,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10512,7 +10515,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10544,14 +10547,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10573,10 +10576,10 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>172</v>
@@ -10631,7 +10634,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10663,10 +10666,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10689,13 +10692,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10746,7 +10749,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10778,10 +10781,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10804,13 +10807,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10861,7 +10864,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10893,10 +10896,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10922,10 +10925,10 @@
         <v>193</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10952,13 +10955,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -10976,7 +10979,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11008,10 +11011,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11034,16 +11037,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11093,7 +11096,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11125,10 +11128,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11151,16 +11154,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11210,7 +11213,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,42 +458,26 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Immunization.extension:primaryVaccineStatus</t>
-  </si>
-  <si>
-    <t>primaryVaccineStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/primary-vaccine-status}
+    <t>Immunization.extension:signature</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/signature}
 </t>
   </si>
   <si>
-    <t>NG-Imm Primary VaccineStatus</t>
-  </si>
-  <si>
-    <t>Indicates whether the immunization patient has completed the full primary vaccine series</t>
+    <t>NG-Imm Digital Signature</t>
+  </si>
+  <si>
+    <t>A digital or electronic signature capturing who signed, when, type, and signature data.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Immunization.extension:signature</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/signature}
-</t>
-  </si>
-  <si>
-    <t>NG-Imm Digital Signature</t>
-  </si>
-  <si>
-    <t>A digital or electronic signature capturing who signed, when, type, and signature data.</t>
-  </si>
-  <si>
     <t>Immunization.extension:sessionType</t>
   </si>
   <si>
@@ -931,606 +915,527 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/ng-imm-organization)
+</t>
+  </si>
+  <si>
+    <t>Manufacturer ID</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
+  </si>
+  <si>
+    <t>Vaccine batch number</t>
+  </si>
+  <si>
+    <t>Lot number of the  vaccine product.</t>
+  </si>
+  <si>
+    <t>RXA-15</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
+  </si>
+  <si>
+    <t>Immunization.expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Vaccine expiration date</t>
+  </si>
+  <si>
+    <t>Date vaccine batch expires.</t>
+  </si>
+  <si>
+    <t>RXA-16</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
+    <t>Body site vaccine was administered</t>
+  </si>
+  <si>
+    <t>Body site where vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-site</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>observation.targetSiteCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
+    <t>How vaccine entered body</t>
+  </si>
+  <si>
+    <t>The path by which the vaccine product is taken into the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Amount of vaccine administered</t>
+  </si>
+  <si>
+    <t>The quantity of vaccine product that was administered.</t>
+  </si>
+  <si>
+    <t>RXA-6 / RXA-7</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event</t>
+  </si>
+  <si>
+    <t>Indicates who performed the immunization event.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>ORC-12 / RXA-10</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>Immunization.performer.id</t>
+  </si>
+  <si>
+    <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.function</t>
+  </si>
+  <si>
+    <t>Designation of reporting officer</t>
+  </si>
+  <si>
+    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The role a practitioner or organization plays in the immunization event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.participation.functionCode</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/NgImmPractitioner)
+</t>
+  </si>
+  <si>
+    <t>Name of reporting officer</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
+  </si>
+  <si>
+    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Additional immunization notes</t>
+  </si>
+  <si>
+    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 48767-8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
+  </si>
+  <si>
+    <t>Why immunization occurred</t>
+  </si>
+  <si>
+    <t>Reasons why the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>The reason why a vaccine was administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>[actionNegationInd=false].reasonCode</t>
+  </si>
+  <si>
+    <t>Immunization.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+</t>
+  </si>
+  <si>
+    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Immunization.isSubpotent</t>
+  </si>
+  <si>
+    <t>Dose potency</t>
+  </si>
+  <si>
+    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
+  </si>
+  <si>
+    <t>By default, a dose should be considered to be potent.</t>
+  </si>
+  <si>
+    <t>RXA-20 = PA (partial administration)</t>
+  </si>
+  <si>
+    <t>Immunization.subpotentReason</t>
+  </si>
+  <si>
+    <t>Reason for being subpotent</t>
+  </si>
+  <si>
+    <t>Reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>The reason why a dose is considered to be subpotent.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+  </si>
+  <si>
+    <t>Immunization.education</t>
+  </si>
+  <si>
+    <t>Educational material presented to patient</t>
+  </si>
+  <si>
+    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.education.id</t>
+  </si>
+  <si>
+    <t>Immunization.education.extension</t>
+  </si>
+  <si>
+    <t>Immunization.education.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.education.documentType</t>
+  </si>
+  <si>
+    <t>Educational material document identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the material presented to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 69764-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.reference</t>
+  </si>
+  <si>
+    <t>Educational material reference pointer</t>
+  </si>
+  <si>
+    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
+  </si>
+  <si>
+    <t>Immunization.education.publicationDate</t>
+  </si>
+  <si>
+    <t>Educational material publication date</t>
+  </si>
+  <si>
+    <t>Date the educational material was published.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29768-9</t>
+  </si>
+  <si>
+    <t>Immunization.education.presentationDate</t>
+  </si>
+  <si>
+    <t>Educational material presentation date</t>
+  </si>
+  <si>
+    <t>Date the educational material was given to the patient.</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 29769-7</t>
+  </si>
+  <si>
+    <t>Immunization.programEligibility</t>
+  </si>
+  <si>
+    <t>Patient eligibility for a vaccination program</t>
+  </si>
+  <si>
+    <t>Indicates a patient's eligibility for a funding program.</t>
+  </si>
+  <si>
+    <t>The patient's eligibility for a vaccation program.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+  </si>
+  <si>
+    <t>OBX-5 : OBX-3 = 64994-7</t>
+  </si>
+  <si>
+    <t>Immunization.fundingSource</t>
+  </si>
+  <si>
+    <t>Funding source for the vaccine</t>
+  </si>
+  <si>
+    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
+  </si>
+  <si>
+    <t>The source of funding used to purchase the vaccine administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+  </si>
+  <si>
+    <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>Details of a reaction that follows immunization</t>
+  </si>
+  <si>
+    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
+  </si>
+  <si>
+    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>Observation[classCode=obs].code</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.id</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.extension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.date</t>
+  </si>
+  <si>
+    <t>When reaction started</t>
+  </si>
+  <si>
+    <t>Date of reaction to the immunization.</t>
+  </si>
+  <si>
+    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Additional information on reaction</t>
+  </si>
+  <si>
+    <t>Details of the reaction.</t>
+  </si>
+  <si>
+    <t>OBX-5</t>
+  </si>
+  <si>
+    <t>.value</t>
+  </si>
+  <si>
+    <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t>Indicates self-reported reaction</t>
+  </si>
+  <si>
+    <t>Self-reported indicator.</t>
+  </si>
+  <si>
+    <t>(HL7 v2 doesn't seem to provide for this)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
+    <t>Protocol followed by the provider</t>
+  </si>
+  <si>
+    <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.id</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.extension:nextDoseDate</t>
+  </si>
+  <si>
+    <t>nextDoseDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/next-dose-date}
+</t>
+  </si>
+  <si>
+    <t>NG-Imm Next Dose Date</t>
+  </si>
+  <si>
+    <t>The recommended due date for the next vaccine dose in the schedule.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.modifierExtension</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.series</t>
+  </si>
+  <si>
+    <t>Name of vaccine series</t>
+  </si>
+  <si>
+    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
+  </si>
+  <si>
+    <t>Immunization.protocolApplied.authority</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>Vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.id</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.reference</t>
-  </si>
-  <si>
-    <t>Manufacturer ID</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.display</t>
-  </si>
-  <si>
-    <t>Name of the Manufacturer</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
-    <t>Vaccine batch number</t>
-  </si>
-  <si>
-    <t>Lot number of the  vaccine product.</t>
-  </si>
-  <si>
-    <t>RXA-15</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/lotNumberText</t>
-  </si>
-  <si>
-    <t>Immunization.expirationDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Vaccine expiration date</t>
-  </si>
-  <si>
-    <t>Date vaccine batch expires.</t>
-  </si>
-  <si>
-    <t>RXA-16</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
-  </si>
-  <si>
-    <t>Immunization.site</t>
-  </si>
-  <si>
-    <t>Body site vaccine was administered</t>
-  </si>
-  <si>
-    <t>Body site where vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.route</t>
-  </si>
-  <si>
-    <t>How vaccine entered body</t>
-  </si>
-  <si>
-    <t>The path by which the vaccine product is taken into the body.</t>
-  </si>
-  <si>
-    <t>https://www.hl7.org/fhir/R4/valueset-immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of vaccine administered</t>
-  </si>
-  <si>
-    <t>The quantity of vaccine product that was administered.</t>
-  </si>
-  <si>
-    <t>RXA-6 / RXA-7</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>Immunization.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event</t>
-  </si>
-  <si>
-    <t>Indicates who performed the immunization event.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>ORC-12 / RXA-10</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Immunization.performer.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.function</t>
-  </si>
-  <si>
-    <t>Designation of reporting officer</t>
-  </si>
-  <si>
-    <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.participation.functionCode</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Name of reporting officer</t>
-  </si>
-  <si>
-    <t>The practitioner or organization who performed the action.</t>
-  </si>
-  <si>
-    <t>When the individual practitioner who performed the action is known, it is best to send.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Additional immunization notes</t>
-  </si>
-  <si>
-    <t>Extra information about the immunization that is not conveyed by the other attributes.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 48767-8</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Immunization.reasonCode</t>
-  </si>
-  <si>
-    <t>Why immunization occurred</t>
-  </si>
-  <si>
-    <t>Reasons why the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The reason why a vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>[actionNegationInd=false].reasonCode</t>
-  </si>
-  <si>
-    <t>Immunization.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>Condition, Observation or DiagnosticReport that supports why the immunization was administered.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Immunization.isSubpotent</t>
-  </si>
-  <si>
-    <t>Dose potency</t>
-  </si>
-  <si>
-    <t>Indication if a dose is considered to be subpotent. By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>Typically, the recognition of the dose being sub-potent is retrospective, after the administration (ex. notification of a manufacturer recall after administration). However, in the case of a partial administration (the patient moves unexpectedly and only some of the dose is actually administered), subpotency may be recognized immediately, but it is still important to record the event.</t>
-  </si>
-  <si>
-    <t>By default, a dose should be considered to be potent.</t>
-  </si>
-  <si>
-    <t>RXA-20 = PA (partial administration)</t>
-  </si>
-  <si>
-    <t>Immunization.subpotentReason</t>
-  </si>
-  <si>
-    <t>Reason for being subpotent</t>
-  </si>
-  <si>
-    <t>Reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>The reason why a dose is considered to be subpotent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
-  </si>
-  <si>
-    <t>Immunization.education</t>
-  </si>
-  <si>
-    <t>Educational material presented to patient</t>
-  </si>
-  <si>
-    <t>Educational material presented to the patient (or guardian) at the time of vaccine administration.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-imm-1:One of documentType or reference SHALL be present {documentType.exists() or reference.exists()}</t>
-  </si>
-  <si>
-    <t>Immunization.education.id</t>
-  </si>
-  <si>
-    <t>Immunization.education.extension</t>
-  </si>
-  <si>
-    <t>Immunization.education.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.education.documentType</t>
-  </si>
-  <si>
-    <t>Educational material document identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the material presented to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 69764-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.reference</t>
-  </si>
-  <si>
-    <t>Educational material reference pointer</t>
-  </si>
-  <si>
-    <t>Reference pointer to the educational material given to the patient if the information was on line.</t>
-  </si>
-  <si>
-    <t>Immunization.education.publicationDate</t>
-  </si>
-  <si>
-    <t>Educational material publication date</t>
-  </si>
-  <si>
-    <t>Date the educational material was published.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29768-9</t>
-  </si>
-  <si>
-    <t>Immunization.education.presentationDate</t>
-  </si>
-  <si>
-    <t>Educational material presentation date</t>
-  </si>
-  <si>
-    <t>Date the educational material was given to the patient.</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 29769-7</t>
-  </si>
-  <si>
-    <t>Immunization.programEligibility</t>
-  </si>
-  <si>
-    <t>Patient eligibility for a vaccination program</t>
-  </si>
-  <si>
-    <t>Indicates a patient's eligibility for a funding program.</t>
-  </si>
-  <si>
-    <t>The patient's eligibility for a vaccation program.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
-  </si>
-  <si>
-    <t>OBX-5 : OBX-3 = 64994-7</t>
-  </si>
-  <si>
-    <t>Immunization.fundingSource</t>
-  </si>
-  <si>
-    <t>Funding source for the vaccine</t>
-  </si>
-  <si>
-    <t>Indicates the source of the vaccine actually administered. This may be different than the patient eligibility (e.g. the patient may be eligible for a publically purchased vaccine but due to inventory issues, vaccine purchased with private funds was actually administered).</t>
-  </si>
-  <si>
-    <t>The source of funding used to purchase the vaccine administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
-  </si>
-  <si>
-    <t>Immunization.reaction</t>
-  </si>
-  <si>
-    <t>Details of a reaction that follows immunization</t>
-  </si>
-  <si>
-    <t>Categorical data indicating that an adverse event is associated in time to an immunization.</t>
-  </si>
-  <si>
-    <t>A reaction may be an indication of an allergy or intolerance and, if this is determined to be the case, it should be recorded as a new AllergyIntolerance resource instance as most systems will not query against past Immunization.reaction elements.</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>Observation[classCode=obs].code</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.id</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.extension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.date</t>
-  </si>
-  <si>
-    <t>When reaction started</t>
-  </si>
-  <si>
-    <t>Date of reaction to the immunization.</t>
-  </si>
-  <si>
-    <t>OBX-14 (ideally this would be reported in an IAM segment, but IAM is not part of the HL7 v2 VXU message - most likely would appear in OBX segments if at all)</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
-</t>
-  </si>
-  <si>
-    <t>Additional information on reaction</t>
-  </si>
-  <si>
-    <t>Details of the reaction.</t>
-  </si>
-  <si>
-    <t>OBX-5</t>
-  </si>
-  <si>
-    <t>.value</t>
-  </si>
-  <si>
-    <t>Immunization.reaction.reported</t>
-  </si>
-  <si>
-    <t>Indicates self-reported reaction</t>
-  </si>
-  <si>
-    <t>Self-reported indicator.</t>
-  </si>
-  <si>
-    <t>(HL7 v2 doesn't seem to provide for this)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported=true)</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied</t>
-  </si>
-  <si>
-    <t>Protocol followed by the provider</t>
-  </si>
-  <si>
-    <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.id</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.extension:nextDoseDate</t>
-  </si>
-  <si>
-    <t>nextDoseDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/next-dose-date}
-</t>
-  </si>
-  <si>
-    <t>NG-Imm Next Dose Date</t>
-  </si>
-  <si>
-    <t>The recommended due date for the next vaccine dose in the schedule.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.modifierExtension</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.series</t>
-  </si>
-  <si>
-    <t>Name of vaccine series</t>
-  </si>
-  <si>
-    <t>One possible path to achieve presumed immunity against a disease - within the context of an authority.</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.authority</t>
   </si>
   <si>
     <t>Who is responsible for publishing the recommendations</t>
@@ -1904,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1915,7 +1820,7 @@
   <cols>
     <col min="1" max="1" width="43.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.3671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.15625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
@@ -1923,7 +1828,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3260,7 +3165,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>91</v>
@@ -3481,13 +3386,11 @@
         <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3497,25 +3400,29 @@
         <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3563,7 +3470,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3572,7 +3479,7 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>141</v>
@@ -3584,7 +3491,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3595,46 +3502,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>173</v>
       </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3682,7 +3585,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3694,30 +3597,30 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3731,24 +3634,26 @@
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3773,13 +3678,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3797,13 +3700,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3812,27 +3715,27 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3840,31 +3743,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3890,11 +3793,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3912,10 +3815,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -3927,16 +3830,16 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3944,10 +3847,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3955,32 +3858,30 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4005,11 +3906,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4027,10 +3930,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4042,27 +3945,27 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4070,28 +3973,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4118,13 +4021,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4142,10 +4045,10 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>90</v>
@@ -4154,41 +4057,41 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4200,7 +4103,7 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>213</v>
@@ -4208,7 +4111,9 @@
       <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4245,31 +4150,31 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4278,7 +4183,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4296,7 +4201,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4312,21 +4217,23 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4362,19 +4269,19 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4386,16 +4293,16 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4406,10 +4313,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4420,7 +4327,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4432,19 +4339,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4493,13 +4400,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4511,10 +4418,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4525,10 +4432,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4536,7 +4443,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4551,20 +4458,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4612,10 +4515,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4627,16 +4530,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4644,10 +4547,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4655,7 +4558,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4667,16 +4570,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4727,10 +4630,10 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -4742,16 +4645,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4759,10 +4662,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4770,7 +4673,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4782,18 +4685,20 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4842,10 +4747,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4857,27 +4762,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4885,7 +4790,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -4897,20 +4802,18 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4959,10 +4862,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4974,19 +4877,19 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5014,18 +4917,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5092,13 +4997,13 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5106,10 +5011,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5129,19 +5034,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5167,13 +5072,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5191,7 +5096,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5209,13 +5114,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5223,10 +5128,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5249,17 +5154,15 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5284,13 +5187,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5308,7 +5211,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,16 +5226,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5340,10 +5243,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5366,13 +5269,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5423,7 +5326,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5438,27 +5341,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5466,7 +5369,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5481,13 +5384,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5538,7 +5441,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5556,24 +5459,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5581,13 +5484,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -5596,13 +5499,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5653,7 +5556,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5665,16 +5568,16 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5685,21 +5588,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5711,17 +5614,15 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5746,66 +5647,64 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5813,7 +5712,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5825,20 +5724,18 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5863,13 +5760,11 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5887,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5896,7 +5791,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>102</v>
@@ -5905,24 +5800,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5930,32 +5825,30 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5980,13 +5873,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6004,7 +5897,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6022,10 +5915,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6036,10 +5929,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6050,10 +5943,10 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6062,17 +5955,15 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6121,13 +6012,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -6136,13 +6027,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6153,10 +6044,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6164,7 +6055,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6176,20 +6067,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6238,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6250,7 +6139,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6259,7 +6148,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6270,24 +6159,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6296,15 +6185,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6353,74 +6244,78 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6468,28 +6363,28 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6500,10 +6395,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6523,16 +6418,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6559,11 +6454,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6478,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6596,27 +6493,27 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6624,7 +6521,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -6636,18 +6533,20 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6672,32 +6571,34 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>90</v>
@@ -6709,27 +6610,27 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6737,28 +6638,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6809,13 +6710,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6824,13 +6725,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6841,10 +6742,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6858,22 +6759,22 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6900,13 +6801,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6825,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6939,13 +6840,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6956,10 +6857,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6970,7 +6871,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6982,13 +6883,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>214</v>
+        <v>373</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7039,28 +6940,28 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>215</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7071,48 +6972,50 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7156,28 +7059,28 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7188,14 +7091,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7208,26 +7111,22 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7251,13 +7150,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7275,7 +7174,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7287,7 +7186,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7307,10 +7206,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7321,7 +7220,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7330,16 +7229,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7366,13 +7265,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7390,28 +7289,28 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7422,10 +7321,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7433,7 +7332,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>90</v>
@@ -7445,20 +7344,18 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7507,10 +7404,10 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>90</v>
@@ -7519,19 +7416,19 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7539,14 +7436,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7562,18 +7459,20 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7622,7 +7521,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>216</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7634,16 +7533,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>211</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7654,14 +7553,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7674,22 +7573,26 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7713,13 +7616,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7737,7 +7640,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7749,16 +7652,16 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7769,10 +7672,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7783,7 +7686,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7795,13 +7698,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7852,13 +7755,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7867,10 +7770,10 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>133</v>
@@ -7884,10 +7787,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7904,30 +7807,26 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q52" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7971,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7989,7 +7888,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>133</v>
@@ -8003,10 +7902,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8017,7 +7916,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8029,13 +7928,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8062,13 +7961,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8086,13 +7985,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8104,7 +8003,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>133</v>
@@ -8118,10 +8017,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8132,7 +8031,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8144,13 +8043,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8201,25 +8100,25 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>420</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>133</v>
@@ -8233,10 +8132,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8247,7 +8146,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8259,13 +8158,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>213</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>214</v>
+        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8292,13 +8191,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8316,28 +8215,28 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8348,21 +8247,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8374,17 +8273,15 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8409,13 +8306,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8433,19 +8330,19 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>221</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8454,7 +8351,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8465,14 +8362,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8485,26 +8382,24 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8552,7 +8447,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8564,16 +8459,16 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8584,10 +8479,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8610,13 +8505,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>208</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8667,7 +8562,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8679,16 +8574,16 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8699,21 +8594,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8725,15 +8620,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8782,19 +8679,19 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8803,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8814,42 +8711,46 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8897,25 +8798,25 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>133</v>
@@ -8929,10 +8830,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8955,13 +8856,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9012,7 +8913,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9030,10 +8931,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9044,10 +8945,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9058,7 +8959,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9070,13 +8971,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9103,13 +9004,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9127,13 +9028,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9145,10 +9046,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9159,10 +9060,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9185,13 +9086,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9218,13 +9119,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9242,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9260,10 +9161,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9274,10 +9175,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9291,7 +9192,7 @@
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>79</v>
@@ -9300,17 +9201,15 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9377,10 +9276,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>133</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9391,10 +9290,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9417,13 +9316,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9474,7 +9373,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9495,7 +9394,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9506,14 +9405,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9535,14 +9434,12 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9579,19 +9476,17 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9507,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9623,46 +9518,44 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="D67" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9710,7 +9603,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9719,7 +9612,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>141</v>
@@ -9731,7 +9624,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9742,42 +9635,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9825,28 +9722,28 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>262</v>
+        <v>133</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9857,10 +9754,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9883,13 +9780,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>464</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9940,7 +9837,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9958,10 +9855,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>468</v>
+        <v>133</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9972,10 +9869,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9998,13 +9895,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>271</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10055,7 +9952,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10073,10 +9970,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10087,10 +9984,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10113,13 +10010,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>360</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10146,13 +10043,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10170,7 +10067,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10202,10 +10099,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10213,7 +10110,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
@@ -10228,15 +10125,17 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>212</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>213</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10285,10 +10184,10 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>215</v>
+        <v>466</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>90</v>
@@ -10297,7 +10196,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10306,7 +10205,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10317,10 +10216,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10331,7 +10230,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10343,15 +10242,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>136</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10388,29 +10289,31 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>221</v>
+        <v>471</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10419,832 +10322,17 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11254,7 +10342,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -712,6 +712,9 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-library</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -980,7 +983,7 @@
     <t>Body site where vaccine was administered.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-site</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
   </si>
   <si>
     <t>RXR-2</t>
@@ -1084,12 +1087,6 @@
   </si>
   <si>
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
@@ -1842,7 +1839,7 @@
     <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.55859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
@@ -4257,13 +4254,11 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4281,7 +4276,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4299,10 +4294,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4313,10 +4308,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4342,16 +4337,16 @@
         <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4376,13 +4371,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4400,7 +4393,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4418,10 +4411,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4432,10 +4425,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4458,13 +4451,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4515,7 +4508,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -4530,16 +4523,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4547,10 +4540,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4573,13 +4566,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4630,7 +4623,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4645,16 +4638,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4662,10 +4655,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4688,16 +4681,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4747,7 +4740,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>90</v>
@@ -4762,27 +4755,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4805,13 +4798,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4862,7 +4855,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4883,10 +4876,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4894,10 +4887,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4920,16 +4913,16 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4979,7 +4972,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4997,13 +4990,13 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5011,10 +5004,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5040,13 +5033,13 @@
         <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5075,10 +5068,10 @@
         <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5096,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5114,13 +5107,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5128,10 +5121,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5154,13 +5147,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5211,7 +5204,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5226,16 +5219,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5243,10 +5236,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5269,13 +5262,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5326,7 +5319,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5344,24 +5337,24 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5387,10 +5380,10 @@
         <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5441,7 +5434,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5459,24 +5452,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5499,13 +5492,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5556,7 +5549,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5574,10 +5567,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5588,10 +5581,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5617,10 +5610,10 @@
         <v>188</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5651,7 +5644,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5662,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5687,24 +5680,24 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5730,10 +5723,10 @@
         <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5764,7 +5757,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5782,7 +5775,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5800,24 +5793,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5840,13 +5833,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5897,7 +5890,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5915,10 +5908,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5929,10 +5922,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5955,13 +5948,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6012,7 +6005,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6027,13 +6020,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6044,10 +6037,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6159,10 +6152,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6276,14 +6269,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6305,10 +6298,10 @@
         <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>167</v>
@@ -6363,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6395,10 +6388,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6424,10 +6417,10 @@
         <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6454,14 +6447,12 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="Y40" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6478,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6493,13 +6484,13 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6510,10 +6501,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6536,16 +6527,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6595,7 +6586,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>90</v>
@@ -6610,16 +6601,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6627,10 +6618,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6653,13 +6644,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6710,7 +6701,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6725,13 +6716,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6742,10 +6733,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6771,10 +6762,10 @@
         <v>188</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6804,11 +6795,11 @@
         <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6825,7 +6816,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6840,13 +6831,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6857,10 +6848,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6883,13 +6874,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6940,7 +6931,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6955,7 +6946,7 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6972,10 +6963,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6998,23 +6989,23 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7059,7 +7050,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7077,7 +7068,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>133</v>
@@ -7091,10 +7082,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7120,10 +7111,10 @@
         <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7153,11 +7144,11 @@
         <v>198</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7174,7 +7165,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7206,10 +7197,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7232,13 +7223,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7289,7 +7280,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7301,7 +7292,7 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7321,10 +7312,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7436,10 +7427,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7553,14 +7544,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7582,10 +7573,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>167</v>
@@ -7640,7 +7631,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7672,10 +7663,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7701,10 +7692,10 @@
         <v>207</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7755,7 +7746,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7764,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>133</v>
@@ -7787,10 +7778,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7816,10 +7807,10 @@
         <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7870,7 +7861,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7902,10 +7893,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7928,13 +7919,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7985,7 +7976,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8003,7 +7994,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>133</v>
@@ -8017,10 +8008,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8043,13 +8034,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8100,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8118,7 +8109,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>133</v>
@@ -8132,10 +8123,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8161,10 +8152,10 @@
         <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8194,11 +8185,11 @@
         <v>198</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8215,7 +8206,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8233,7 +8224,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>133</v>
@@ -8247,10 +8238,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8276,10 +8267,10 @@
         <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8309,11 +8300,11 @@
         <v>198</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8330,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8362,10 +8353,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8388,16 +8379,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8447,7 +8438,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8465,10 +8456,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8479,10 +8470,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8594,10 +8585,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8711,14 +8702,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8740,10 +8731,10 @@
         <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>167</v>
@@ -8798,7 +8789,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8830,10 +8821,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8856,13 +8847,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8913,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8931,10 +8922,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8945,10 +8936,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8971,13 +8962,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9028,7 +9019,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9046,10 +9037,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9060,10 +9051,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9086,13 +9077,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9143,7 +9134,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9161,10 +9152,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9175,10 +9166,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9201,13 +9192,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9258,7 +9249,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9290,10 +9281,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9405,10 +9396,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9518,13 +9509,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>79</v>
@@ -9546,13 +9537,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9635,14 +9626,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9664,10 +9655,10 @@
         <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>167</v>
@@ -9722,7 +9713,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9754,10 +9745,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9783,10 +9774,10 @@
         <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9837,7 +9828,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9869,10 +9860,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9895,13 +9886,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9952,7 +9943,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -9984,10 +9975,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10013,10 +10004,10 @@
         <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10046,11 +10037,11 @@
         <v>198</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10067,7 +10058,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10099,10 +10090,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10125,16 +10116,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10184,7 +10175,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>90</v>
@@ -10216,10 +10207,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10242,16 +10233,16 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10301,7 +10292,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,6 +617,9 @@
     <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
   </si>
   <si>
@@ -629,317 +632,229 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t>Vaccine product administered</t>
+    <t>The code of the Vaccine Administered</t>
   </si>
   <si>
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-vaccine-library</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/NgImmPatient)
+</t>
+  </si>
+  <si>
+    <t>Who was immunized</t>
+  </si>
+  <si>
+    <t>The patient who either received or did not receive the immunization.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter immunization was part of</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t>When the immunization was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>Indicates the source of a secondarily reported record</t>
+  </si>
+  <si>
+    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.id</t>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where immunization occurred</t>
+  </si>
+  <si>
+    <t>The service delivery location where the vaccine administration occurred.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/ng-imm-organization)
+</t>
+  </si>
+  <si>
+    <t>Manufacturer description and identity</t>
+  </si>
+  <si>
+    <t>Name of vaccine manufacturer.</t>
+  </si>
+  <si>
+    <t>RXA-17</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
+  </si>
+  <si>
+    <t>Immunization.lotNumber</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Vaccine Type</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-library</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.text</t>
-  </si>
-  <si>
-    <t>Vaccine Administered</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/NgImmPatient)
-</t>
-  </si>
-  <si>
-    <t>Who was immunized</t>
-  </si>
-  <si>
-    <t>The patient who either received or did not receive the immunization.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter immunization was part of</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t>When the immunization was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where immunization occurred</t>
-  </si>
-  <si>
-    <t>The service delivery location where the vaccine administration occurred.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://nphcda.gov.ng/immunizationIG/StructureDefinition/ng-imm-organization)
-</t>
-  </si>
-  <si>
-    <t>Manufacturer ID</t>
-  </si>
-  <si>
-    <t>Name of vaccine manufacturer.</t>
-  </si>
-  <si>
-    <t>RXA-17</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=ORG]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
-  </si>
-  <si>
-    <t>Immunization.lotNumber</t>
-  </si>
-  <si>
     <t>Vaccine batch number</t>
   </si>
   <si>
@@ -1060,7 +975,28 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1450,10 +1386,7 @@
     <t>The vaccine preventable disease the dose is being administered against.</t>
   </si>
   <si>
-    <t>The vaccine preventable disease the dose is being administered for.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
+    <t>https://www.hl7.org/fhir/R4/valueset-immunization-target-disease</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.doseNumber[x]</t>
@@ -1806,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1840,10 +1773,10 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.55859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.6015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3790,11 +3723,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3827,13 +3760,13 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3844,10 +3777,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3861,7 +3794,7 @@
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3873,10 +3806,10 @@
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3903,14 +3836,12 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3927,7 +3858,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -3942,27 +3873,27 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3970,7 +3901,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -3982,16 +3913,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4042,31 +3973,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4074,21 +4005,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4100,17 +4031,15 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4147,43 +4076,43 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4191,10 +4120,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4202,10 +4131,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4217,20 +4146,18 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4254,11 +4181,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4276,13 +4205,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4291,27 +4220,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4331,23 +4260,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4371,11 +4296,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4393,7 +4320,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4411,13 +4338,13 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4425,10 +4352,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4436,7 +4363,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4451,15 +4378,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4508,10 +4437,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4523,16 +4452,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4540,10 +4469,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4566,7 +4495,7 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>245</v>
@@ -4574,7 +4503,9 @@
       <c r="M24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4599,13 +4530,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4623,7 +4554,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4638,16 +4569,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4655,10 +4586,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4666,7 +4597,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4678,20 +4609,18 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4740,10 +4669,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4767,15 +4696,15 @@
         <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4798,7 +4727,7 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>262</v>
@@ -4855,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4873,24 +4802,24 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4898,32 +4827,30 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
         <v>270</v>
       </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4972,7 +4899,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4996,10 +4923,10 @@
         <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5015,13 +4942,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
@@ -5030,17 +4957,15 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>277</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5065,13 +4990,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5107,13 +5032,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5121,10 +5046,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5147,13 +5072,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5180,13 +5105,11 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5204,7 +5127,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5219,27 +5142,27 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5262,13 +5185,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5295,13 +5218,11 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5319,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5337,24 +5258,24 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5377,13 +5298,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5434,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5452,24 +5373,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5477,10 +5398,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>91</v>
@@ -5489,16 +5410,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5549,13 +5470,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5564,13 +5485,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5581,10 +5502,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5607,13 +5528,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5640,75 +5561,77 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5720,15 +5643,17 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5753,11 +5678,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5781,68 +5708,72 @@
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5890,28 +5821,28 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5922,10 +5853,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5936,10 +5867,10 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -5948,13 +5879,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5981,13 +5912,11 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6005,13 +5934,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -6020,13 +5949,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6037,10 +5966,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6048,7 +5977,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6060,18 +5989,20 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6120,10 +6051,10 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>210</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>90</v>
@@ -6132,19 +6063,19 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6152,14 +6083,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6175,20 +6106,18 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6237,7 +6166,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6249,16 +6178,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6269,14 +6198,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6289,26 +6218,22 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6332,13 +6257,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6356,7 +6281,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6368,16 +6293,16 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6388,10 +6313,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6402,7 +6327,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6411,16 +6336,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6447,11 +6372,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6469,13 +6396,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6484,13 +6411,13 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6501,10 +6428,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6512,7 +6439,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -6521,28 +6448,30 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6586,10 +6515,10 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>90</v>
@@ -6601,16 +6530,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6618,10 +6547,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6641,16 +6570,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6677,13 +6606,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6701,7 +6630,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6716,13 +6645,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6733,10 +6662,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6759,13 +6688,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6792,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6816,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6828,16 +6757,16 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6848,10 +6777,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6862,7 +6791,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6874,13 +6803,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6931,28 +6860,28 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6963,50 +6892,48 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7050,28 +6977,28 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7082,14 +7009,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7102,22 +7029,26 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7141,13 +7072,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7165,7 +7096,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7177,7 +7108,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7197,10 +7128,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7211,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7223,13 +7154,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7280,25 +7211,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>388</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>133</v>
@@ -7312,10 +7243,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7338,13 +7269,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>208</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>209</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7395,7 +7326,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7407,7 +7338,7 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7416,7 +7347,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7427,21 +7358,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7453,17 +7384,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7512,28 +7441,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>216</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7544,46 +7473,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7631,25 +7556,25 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>133</v>
@@ -7663,10 +7588,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7677,7 +7602,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7689,13 +7614,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7722,13 +7647,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7746,13 +7671,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7689,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>133</v>
@@ -7778,10 +7703,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7804,13 +7729,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7837,13 +7762,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7861,7 +7786,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7893,10 +7818,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7907,7 +7832,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7919,15 +7844,17 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -7976,13 +7903,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7994,10 +7921,10 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8034,13 +7961,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8091,7 +8018,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>310</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8103,16 +8030,16 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8123,14 +8050,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8149,15 +8076,17 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8182,13 +8111,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8206,7 +8135,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8218,16 +8147,16 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8238,42 +8167,46 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>318</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8297,13 +8230,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8321,19 +8254,19 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8353,10 +8286,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8367,7 +8300,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8379,17 +8312,15 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8438,13 +8369,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8456,10 +8387,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8470,10 +8401,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8496,13 +8427,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8553,7 +8484,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8565,16 +8496,16 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8585,21 +8516,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8611,17 +8542,15 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8670,28 +8599,28 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8702,14 +8631,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8719,29 +8648,25 @@
         <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8789,7 +8714,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8801,7 +8726,7 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -8821,10 +8746,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8847,13 +8772,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8904,7 +8829,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8916,16 +8841,16 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8936,10 +8861,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8950,7 +8875,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -8962,13 +8887,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9007,40 +8932,38 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9051,12 +8974,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9068,7 +8993,7 @@
         <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>79</v>
@@ -9077,13 +9002,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9134,28 +9059,28 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9166,14 +9091,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9183,25 +9108,29 @@
         <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>318</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9249,7 +9178,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9261,7 +9190,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9281,10 +9210,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9307,13 +9236,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9364,7 +9293,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>210</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9376,7 +9305,7 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9385,7 +9314,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9396,10 +9325,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9410,7 +9339,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9422,13 +9351,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>137</v>
+        <v>438</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9467,29 +9396,31 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>216</v>
+        <v>435</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9498,7 +9429,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9509,14 +9440,12 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9525,10 +9454,10 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>79</v>
@@ -9537,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9570,13 +9499,11 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9594,7 +9521,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>216</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9603,10 +9530,10 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9615,7 +9542,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9626,46 +9553,44 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9713,19 +9638,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9745,10 +9670,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9771,15 +9696,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -9828,7 +9755,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9858,472 +9785,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10333,7 +9796,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,9 +617,6 @@
     <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
   </si>
   <si>
@@ -632,7 +629,7 @@
     <t>Immunization.vaccineCode</t>
   </si>
   <si>
-    <t>The code of the Vaccine Administered</t>
+    <t>Vaccine Product Administered</t>
   </si>
   <si>
     <t>Vaccine that was administered or was to be administered.</t>
@@ -1023,6 +1020,9 @@
   </si>
   <si>
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
@@ -3723,11 +3723,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3760,13 +3760,13 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3806,10 +3806,10 @@
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3858,7 +3858,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -3873,27 +3873,27 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3916,13 +3916,13 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3973,7 +3973,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -3988,16 +3988,16 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4031,13 +4031,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4088,7 +4088,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4103,16 +4103,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4146,16 +4146,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4205,7 +4205,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>90</v>
@@ -4220,27 +4220,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4263,13 +4263,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4320,7 +4320,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4341,10 +4341,10 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4378,16 +4378,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4437,7 +4437,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4455,13 +4455,13 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4498,13 +4498,13 @@
         <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4530,14 +4530,14 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4572,13 +4572,13 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4612,13 +4612,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4669,7 +4669,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4684,16 +4684,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4727,13 +4727,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4784,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4802,24 +4802,24 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4842,13 +4842,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4899,7 +4899,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4917,24 +4917,24 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4957,13 +4957,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5014,7 +5014,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5032,10 +5032,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5046,10 +5046,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5075,10 +5075,10 @@
         <v>188</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5127,7 +5127,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5145,24 +5145,24 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5188,10 +5188,10 @@
         <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5240,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5258,24 +5258,24 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5298,13 +5298,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5355,7 +5355,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5373,10 +5373,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5387,10 +5387,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5413,13 +5413,13 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5470,7 +5470,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5485,13 +5485,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5528,13 +5528,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5585,28 +5585,28 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5646,10 +5646,10 @@
         <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>167</v>
@@ -5702,7 +5702,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5723,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5734,14 +5734,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5763,10 +5763,10 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>167</v>
@@ -5821,7 +5821,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5882,10 +5882,10 @@
         <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5912,7 +5912,7 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
@@ -5934,7 +5934,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6257,7 +6257,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>345</v>
@@ -6454,7 +6454,7 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>354</v>
@@ -6606,7 +6606,7 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>362</v>
@@ -6688,7 +6688,7 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>365</v>
@@ -6803,13 +6803,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6860,28 +6860,28 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6921,10 +6921,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>167</v>
@@ -6977,7 +6977,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6998,7 +6998,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7038,10 +7038,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>167</v>
@@ -7096,7 +7096,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7154,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>372</v>
@@ -7384,7 +7384,7 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>379</v>
@@ -7499,7 +7499,7 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>383</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>389</v>
@@ -7762,7 +7762,7 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>395</v>
@@ -7844,7 +7844,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>398</v>
@@ -7961,13 +7961,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8018,28 +8018,28 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8079,10 +8079,10 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>167</v>
@@ -8135,7 +8135,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8156,7 +8156,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8196,10 +8196,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>167</v>
@@ -8254,7 +8254,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8312,7 +8312,7 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>407</v>
@@ -8390,7 +8390,7 @@
         <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8542,7 +8542,7 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>417</v>
@@ -8657,7 +8657,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>422</v>
@@ -8772,13 +8772,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8829,28 +8829,28 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8942,7 +8942,7 @@
         <v>139</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9059,7 +9059,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9120,10 +9120,10 @@
         <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>167</v>
@@ -9178,7 +9178,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9236,7 +9236,7 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>433</v>
@@ -9499,7 +9499,7 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-NgImmImmunization.xlsx
+++ b/StructureDefinition-NgImmImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
